--- a/biology/Zoologie/Bolitoglossa_savagei/Bolitoglossa_savagei.xlsx
+++ b/biology/Zoologie/Bolitoglossa_savagei/Bolitoglossa_savagei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa savagei est une espèce d'urodèles de la famille des Plethodontidae[1] endémique de Colombie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa savagei est une espèce d'urodèles de la famille des Plethodontidae endémique de Colombie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est a été observée uniquement dans la Sierra Nevada de Santa Marta dans le nord de la Colombie. On la trouve entre 1 400 et 2 800 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est a été observée uniquement dans la Sierra Nevada de Santa Marta dans le nord de la Colombie. On la trouve entre 1 400 et 2 800 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 107,5 mm de longueur totale dont 54,5 mm de longueur standard et 53,0 mm pour la queue[3]. La longueur standard des mâles varie de 36,6 à 51,7 mm et celle des femelles de 38,2 à 55,1 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 107,5 mm de longueur totale dont 54,5 mm de longueur standard et 53,0 mm pour la queue. La longueur standard des mâles varie de 36,6 à 51,7 mm et celle des femelles de 38,2 à 55,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jay Mathers Savage[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jay Mathers Savage
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brame &amp; Wake, 1963 : The salamanders of South America. Contributions in Science. Natural History Museum of Los Angeles County, no 69, p. 1-72 (texte intégral).</t>
         </is>
